--- a/6node_spain/output_all.xlsx
+++ b/6node_spain/output_all.xlsx
@@ -8,13 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="s_level" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="a_level" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="f_level" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="fext_level" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="fij_level" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="solver_time" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="sh_level" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="mip_opt_gap" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="sh_level" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="a_level" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="f_level" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="fext_level" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="fij_level" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="mip_opt_gap" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="solver_time" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,19 +449,35 @@
           <t>i4</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.461542243273627e-08</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.331145815308453</v>
+        <v>0.4841603241809979</v>
       </c>
       <c r="C2" t="n">
-        <v>0.511042279104153</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.176614313066852</v>
+        <v>0.003642472676483447</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.317547585021377e-06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.04825809057082037</v>
       </c>
     </row>
   </sheetData>
@@ -475,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,101 +500,55 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>i6</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>i1</t>
-        </is>
+      <c r="A2" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.711173756007756e-07</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>5.049777682986309e-09</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.847902911326734e-09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>i2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1.711173756007756e-07</v>
-      </c>
-      <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>7.043876027046637e-09</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.218573043980729</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>i3</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5.049777682986309e-09</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.043876027046637e-09</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.8517350933034392</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>i4</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3.847902911326734e-09</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.218573043980729</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8517350933034392</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
+      <c r="F2" t="n">
+        <v>0.4395457243847766</v>
       </c>
     </row>
   </sheetData>
@@ -592,7 +562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,6 +591,16 @@
           <t>i4</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -629,16 +609,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.182747596701233e-08</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.311781585577876e-07</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.297142295443649e-07</v>
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -648,16 +634,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.296608996310567e-07</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.712129766850978e-07</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2337334779828701</v>
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8069333896388119</v>
       </c>
     </row>
     <row r="4">
@@ -667,16 +659,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.230849143776027e-09</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.675066497788038e-07</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2377106570274512</v>
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -686,15 +684,71 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.000501306247514e-07</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2313199894487528</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2356636293781805</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.006070787794139079</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.708905370183168e-06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8069333896388119</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.006070787794139079</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.708905370183168e-06</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -709,7 +763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,6 +792,16 @@
           <t>i4</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -749,13 +813,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.000000071827476</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.000000131178159</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.00000082971423</v>
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -765,16 +835,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999997703391004</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.000000171212977</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7662665220171299</v>
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1577996507498847</v>
       </c>
     </row>
     <row r="4">
@@ -784,16 +860,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999999967691509</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.00000036750665</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7622893429725488</v>
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -803,15 +885,71 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999998999498694</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7686800105512472</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7643363706218195</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.002620441398158313</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.282118921086119e-06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1638523178181806</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.002655070250249774</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.28280647621386e-06</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -826,7 +964,208 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8422003492501153</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9973795586018417</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9999977178810789</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8361476821818195</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9973449297497502</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9999977171935238</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,197 +1176,243 @@
     <row r="1">
       <c r="D1" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>i6</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v/>
       </c>
       <c r="E2" t="n">
-        <v>8.726090219531561e-09</v>
+        <v/>
       </c>
       <c r="F2" t="n">
-        <v>1.545464634929065e-11</v>
+        <v/>
       </c>
       <c r="G2" t="n">
-        <v>9.643914805693587e-12</v>
+        <v>0.1577996507498847</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.817476050451102e-09</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.830301694229122e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v/>
       </c>
       <c r="E3" t="n">
-        <v>-2.128112170000242e-12</v>
+        <v/>
       </c>
       <c r="F3" t="n">
-        <v>1.337288199974999e-10</v>
+        <v/>
       </c>
       <c r="G3" t="n">
-        <v>7.228217838084551e-12</v>
+        <v>0.002620441398158313</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.596219586238009e-09</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.178573108250142e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.001</v>
+        <v/>
       </c>
       <c r="E4" t="n">
-        <v>1.146242662684104e-11</v>
+        <v/>
       </c>
       <c r="F4" t="n">
-        <v>1.304727746392255e-11</v>
+        <v/>
       </c>
       <c r="G4" t="n">
-        <v>1.366281596571486e-10</v>
+        <v>2.282118921086119e-06</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.366509862981758e-09</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.965719357035209e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D5" t="n">
+        <v>0.1638523178181806</v>
+      </c>
+      <c r="E5" t="n">
         <v/>
       </c>
-      <c r="E5" t="n">
-        <v>-6.581710120186705e-12</v>
-      </c>
       <c r="F5" t="n">
-        <v>5.597566098422015e-13</v>
+        <v/>
       </c>
       <c r="G5" t="n">
-        <v>2.35472255055533e-12</v>
+        <v/>
+      </c>
+      <c r="H5" t="n">
+        <v>-3.665631481645959e-09</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.147717353150931e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v/>
       </c>
       <c r="E6" t="n">
-        <v>-1.208330503837422e-11</v>
+        <v>0.002655070250249774</v>
       </c>
       <c r="F6" t="n">
-        <v>1.134288430603933e-11</v>
+        <v/>
       </c>
       <c r="G6" t="n">
-        <v>1.58926621671895e-12</v>
+        <v/>
+      </c>
+      <c r="H6" t="n">
+        <v>2.565524301888539e-10</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.748783882499443e-09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v/>
       </c>
       <c r="E7" t="n">
-        <v>-1.306854861681642e-11</v>
+        <v/>
       </c>
       <c r="F7" t="n">
-        <v>-6.305205208198616e-12</v>
+        <v>2.28280647621386e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.243256476223588e-13</v>
+        <v/>
+      </c>
+      <c r="H7" t="n">
+        <v>5.527905447157694e-10</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.075128092554811e-10</v>
       </c>
     </row>
     <row r="8">
@@ -1038,25 +1423,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.001</v>
+          <t>i3</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>-4.004745901346734e-12</v>
+        <v>-1.540526656265304e-09</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.895276318925951e-12</v>
+        <v>8.321032695465486e-10</v>
       </c>
       <c r="G8" t="n">
-        <v>6.522354671657967e-13</v>
+        <v>1.099880099118007e-09</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.154280319178363e-09</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-1.398609351486063e-09</v>
       </c>
     </row>
     <row r="9">
@@ -1067,25 +1455,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v/>
+          <t>i4</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>-1.006687999026715e-11</v>
+        <v>8.646847675150142e-10</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.73949458790786e-12</v>
+        <v>1.228226815956655e-09</v>
       </c>
       <c r="G9" t="n">
-        <v>1.20785480885112e-12</v>
+        <v>4.054727494642555e-09</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.198155906363433e-09</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.214694885309319e-09</v>
       </c>
     </row>
     <row r="10">
@@ -1096,25 +1487,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v/>
+          <t>i5</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>-1.276362589418606e-11</v>
+        <v>-1.616830828672188e-09</v>
       </c>
       <c r="F10" t="n">
-        <v>-8.014869037943348e-12</v>
+        <v>-1.577414800637724e-09</v>
       </c>
       <c r="G10" t="n">
-        <v>1.723175335148596e-14</v>
+        <v>6.421786889266428e-10</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6.236276371934655e-09</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-1.508406574029532e-09</v>
       </c>
     </row>
     <row r="11">
@@ -1125,25 +1519,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v/>
+          <t>i6</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>1.058651179267336e-11</v>
+        <v>1.135368305901628e-10</v>
       </c>
       <c r="F11" t="n">
-        <v>4.335487523878537e-12</v>
+        <v>5.37474416069381e-10</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.006956676518742e-12</v>
+        <v>-2.949786889018343e-10</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1.093204520859941e-09</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.24644397682959e-09</v>
       </c>
     </row>
     <row r="12">
@@ -1154,25 +1551,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v/>
+          <t>i1</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>-1.23115719703639e-11</v>
+        <v>-4.396328601602161e-10</v>
       </c>
       <c r="F12" t="n">
-        <v>-5.117716053850966e-12</v>
+        <v>-1.167485197223249e-10</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.132106494878137e-12</v>
+        <v>7.139950790830691e-11</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.665911296991115e-10</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-2.529027607904855e-10</v>
       </c>
     </row>
     <row r="13">
@@ -1183,123 +1583,135 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0.001</v>
+          <t>i2</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>-1.264468770641288e-11</v>
+        <v>-1.163905461398964e-09</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.905682519066041e-13</v>
+        <v>-1.230956419230798e-09</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.940162025426599e-12</v>
+        <v>1.304836131624464e-09</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.124048432904297e-09</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-1.174045041169948e-09</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>-1.184709091568125e-11</v>
+          <t>i4</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v/>
+        <v>-1.26475405824601e-09</v>
       </c>
       <c r="F14" t="n">
-        <v>4.715943585729591e-13</v>
+        <v>-1.2024822982828e-09</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.992452514787043e-12</v>
+        <v>1.473879016555495e-09</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5.613424494015786e-10</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-1.191184553941645e-09</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>-1.353917273668773e-11</v>
+          <t>i5</t>
+        </is>
       </c>
       <c r="E15" t="n">
-        <v/>
+        <v>-2.071924983225628e-09</v>
       </c>
       <c r="F15" t="n">
-        <v>3.895064884869892e-13</v>
+        <v>-2.063511952596438e-09</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.627979381822406e-12</v>
+        <v>-3.083752635716617e-11</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.846306366728068e-09</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-2.033154925539279e-09</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>-1.332945986384284e-11</v>
+          <t>i6</t>
+        </is>
       </c>
       <c r="E16" t="n">
-        <v/>
+        <v>-2.004164777970988e-09</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.355342386441173e-12</v>
+        <v>-1.969626786033537e-09</v>
       </c>
       <c r="G16" t="n">
-        <v>6.998920481855059e-12</v>
+        <v>-1.210616763216238e-09</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-1.405160815615033e-09</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-1.53873735688485e-09</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1307,492 +1719,555 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>8.857953526764154e-09</v>
-      </c>
       <c r="E17" t="n">
-        <v/>
+        <v>-4.724675297185319e-11</v>
       </c>
       <c r="F17" t="n">
-        <v>5.958182433463654e-12</v>
+        <v>-1.561782112042403e-10</v>
       </c>
       <c r="G17" t="n">
-        <v>1.226133535356801e-11</v>
+        <v>-2.267868883204978e-10</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6.837935819482741e-10</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.623155209973572e-11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>2.513100752426707e-11</v>
+          <t>i2</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v/>
+        <v>3.96267762965037e-09</v>
       </c>
       <c r="F18" t="n">
-        <v>6.72745784198696e-11</v>
+        <v>3.064012903563065e-09</v>
       </c>
       <c r="G18" t="n">
-        <v>2.824129195851685e-11</v>
+        <v>1.140207391872835e-09</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.506734145426344e-09</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.672847095489885e-09</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>-1.055825783084957e-11</v>
+          <t>i3</t>
+        </is>
       </c>
       <c r="E19" t="n">
-        <v>0.001</v>
+        <v>-1.80941523157539e-09</v>
       </c>
       <c r="F19" t="n">
-        <v>2.016628345819359e-12</v>
+        <v>-4.926583149189702e-10</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2337334774117008</v>
+        <v>-6.673875495286984e-10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.85525032083327e-10</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-1.808208544240411e-09</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-1.220688284590168e-11</v>
+        <v>0.001</v>
       </c>
       <c r="E20" t="n">
-        <v/>
+        <v>-1.547791752175428e-09</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.936638086872258e-12</v>
+        <v>-1.622844298693807e-09</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.767339177080663e-12</v>
+        <v>-1.784325850708744e-10</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6.403519909940914e-09</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-1.557513358848837e-09</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>2.356428833414193e-11</v>
+          <t>i6</t>
+        </is>
       </c>
       <c r="E21" t="n">
-        <v>0.001</v>
+        <v>-2.065204762494256e-10</v>
       </c>
       <c r="F21" t="n">
-        <v>1.664464431585633e-12</v>
+        <v>-2.262262088416467e-10</v>
       </c>
       <c r="G21" t="n">
-        <v>1.473331015713303e-11</v>
+        <v>-3.46875094413485e-10</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-2.906515676321505e-10</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.855573199452468e-09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>-1.308187307832301e-11</v>
+          <t>i1</t>
+        </is>
       </c>
       <c r="E22" t="n">
-        <v/>
+        <v>3.357731737727292e-10</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.535045865420231e-12</v>
+        <v>1.054278819974756e-10</v>
       </c>
       <c r="G22" t="n">
-        <v>1.352367855829935e-12</v>
+        <v>6.474112309682117e-10</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-3.660075936380125e-10</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6.775563771352101e-10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>-1.206308936907169e-11</v>
+          <t>i2</t>
+        </is>
       </c>
       <c r="E23" t="n">
-        <v/>
+        <v>-1.163014144236405e-09</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.51578588576615e-12</v>
+        <v>-1.434112557374666e-09</v>
       </c>
       <c r="G23" t="n">
-        <v>-9.11550759232787e-12</v>
+        <v>9.544560123046437e-10</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-1.965188158830178e-10</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-1.167142613843355e-09</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>-1.17171605740545e-11</v>
+          <t>i3</t>
+        </is>
       </c>
       <c r="E24" t="n">
-        <v/>
+        <v>-2.032801212604987e-09</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.135990661696615e-12</v>
+        <v>-1.153451380416827e-09</v>
       </c>
       <c r="G24" t="n">
-        <v>-8.924847108463744e-12</v>
+        <v>5.218360889760483e-11</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-3.886282819472016e-10</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-1.973283442526023e-09</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>-1.331630237773293e-11</v>
+          <t>i4</t>
+        </is>
       </c>
       <c r="E25" t="n">
-        <v>0.001</v>
+        <v>-1.311469245759843e-09</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.221983358552408e-12</v>
+        <v>-1.468505904814819e-09</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.029497374101376e-11</v>
+        <v>2.188321091322729e-09</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-2.132296213938081e-10</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-1.194367921268162e-09</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-7.507506002057589e-12</v>
+        <v>0.001</v>
       </c>
       <c r="E26" t="n">
-        <v>8.285927393551933e-13</v>
+        <v>-2.052880167249722e-09</v>
       </c>
       <c r="F26" t="n">
-        <v/>
+        <v>-2.127188363264693e-09</v>
       </c>
       <c r="G26" t="n">
-        <v>7.711409848520115e-11</v>
+        <v>-1.071518072488511e-09</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-1.66700936320385e-09</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-1.578925082255712e-09</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>-6.159764720431537e-12</v>
+          <t>i1</t>
+        </is>
       </c>
       <c r="E27" t="n">
-        <v>-4.358610033005129e-13</v>
+        <v>2.640345596637907e-10</v>
       </c>
       <c r="F27" t="n">
-        <v/>
+        <v>1.92096189116141e-10</v>
       </c>
       <c r="G27" t="n">
-        <v>1.581255391163002e-12</v>
+        <v>-8.474121685562734e-10</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-1.137167685884881e-09</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-6.983980329337451e-10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-6.470874539932482e-12</v>
+        <v>0.001</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.545708851660103e-12</v>
+        <v>-5.133091285505394e-10</v>
       </c>
       <c r="F28" t="n">
-        <v/>
+        <v>-7.751453362680458e-10</v>
       </c>
       <c r="G28" t="n">
-        <v>3.142027426319749e-10</v>
+        <v>-7.492955678538552e-10</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-1.203441191536455e-09</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-1.400325388799697e-09</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>8.194834417433038e-12</v>
+          <t>i3</t>
+        </is>
       </c>
       <c r="E29" t="n">
-        <v>-4.115506343254878e-12</v>
+        <v>-1.903097951962925e-09</v>
       </c>
       <c r="F29" t="n">
-        <v/>
+        <v>-7.050025890844306e-10</v>
       </c>
       <c r="G29" t="n">
-        <v>1.238704234705514e-10</v>
+        <v>-1.238472812946618e-09</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-1.354269092435472e-09</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-2.188496408412235e-09</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>9.911340078686961e-12</v>
+          <t>i4</t>
+        </is>
       </c>
       <c r="E30" t="n">
-        <v>2.182758238540833e-12</v>
+        <v>7.712827910022733e-10</v>
       </c>
       <c r="F30" t="n">
-        <v>0.001</v>
+        <v>6.233133117967003e-10</v>
       </c>
       <c r="G30" t="n">
-        <v>3.149309899677072e-12</v>
+        <v>1.449497686939017e-09</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-2.238574954982443e-10</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-5.659318231238907e-10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>-4.135324220603711e-12</v>
+          <t>i5</t>
+        </is>
       </c>
       <c r="E31" t="n">
-        <v>-5.400796238568728e-12</v>
+        <v>-2.040733810603018e-09</v>
       </c>
       <c r="F31" t="n">
-        <v/>
+        <v>-2.100796938638713e-09</v>
       </c>
       <c r="G31" t="n">
-        <v>2.809434818929645e-10</v>
+        <v>-1.175094005414122e-09</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-2.807383717139525e-10</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-2.284805177374418e-09</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.361044284136812e-10</v>
+        <v>-2.419885971957669e-09</v>
       </c>
       <c r="E32" t="n">
-        <v>4.34036415841896e-12</v>
+        <v>0.001</v>
       </c>
       <c r="F32" t="n">
-        <v/>
+        <v>-2.352302897913032e-09</v>
       </c>
       <c r="G32" t="n">
-        <v>2.130381946296876e-10</v>
+        <v>-1.172829465251633e-09</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-6.513125804935464e-10</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-7.661748538634911e-10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2.78955348428451e-11</v>
-      </c>
-      <c r="E33" t="n">
-        <v>6.65904309729603e-11</v>
+        <v>-2.501524836706534e-09</v>
       </c>
       <c r="F33" t="n">
-        <v/>
+        <v>-1.738854040368341e-09</v>
       </c>
       <c r="G33" t="n">
-        <v>2.90815871315953e-10</v>
+        <v>-8.990341346952133e-10</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-3.751850628436884e-10</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.464192803611214e-09</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1801,196 +2276,220 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5.238643872260402e-12</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2.136384730469382e-12</v>
+        <v>-2.488093517211574e-09</v>
       </c>
       <c r="F34" t="n">
-        <v>0.001</v>
+        <v>-2.420462543825888e-09</v>
       </c>
       <c r="G34" t="n">
-        <v>0.237710629199407</v>
+        <v>-1.151614428875823e-10</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-1.407631399051692e-10</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.959974524790955e-09</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4.801135561109117e-12</v>
-      </c>
-      <c r="E35" t="n">
-        <v>-1.377834930787951e-12</v>
+        <v>-2.431224815803919e-09</v>
       </c>
       <c r="F35" t="n">
-        <v/>
+        <v>-2.367977287155535e-09</v>
       </c>
       <c r="G35" t="n">
-        <v>5.598947840811241e-11</v>
+        <v>-7.010134046896337e-10</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.880292788770005e-09</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.707639664821667e-09</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-6.417178565285595e-12</v>
-      </c>
-      <c r="E36" t="n">
-        <v>-1.685455227361958e-12</v>
+        <v>-2.523063825562498e-09</v>
       </c>
       <c r="F36" t="n">
-        <v>0.001</v>
+        <v>-2.440781456834349e-09</v>
       </c>
       <c r="G36" t="n">
-        <v>4.003324546198943e-11</v>
+        <v>-9.683651180126252e-10</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-1.162033227703898e-09</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5.268643492622008e-09</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-3.75151188405401e-12</v>
-      </c>
-      <c r="E37" t="n">
-        <v>-1.746830201540927e-12</v>
+        <v>9.827715337137867e-11</v>
       </c>
       <c r="F37" t="n">
-        <v/>
+        <v>-2.042041668675031e-09</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.089301807709927e-13</v>
+        <v>-5.72804477430469e-11</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.347501788730898e-09</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.913043388693489e-09</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-5.631283108437893e-12</v>
-      </c>
-      <c r="E38" t="n">
-        <v>6.111901281807404e-14</v>
+        <v>-3.682710255016126e-10</v>
       </c>
       <c r="F38" t="n">
-        <v>1.167780183260986e-10</v>
+        <v>8.771507267652966e-09</v>
       </c>
       <c r="G38" t="n">
-        <v/>
+        <v>2.694127621934633e-09</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4.675457462064443e-09</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6.864528812391089e-09</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-6.150031119227631e-12</v>
+        <v>5.792565328242931e-09</v>
       </c>
       <c r="E39" t="n">
-        <v>-6.881034363144e-12</v>
+        <v>0.001</v>
       </c>
       <c r="F39" t="n">
-        <v>2.486417181118933e-10</v>
+        <v>6.040325240704062e-09</v>
       </c>
       <c r="G39" t="n">
-        <v/>
+        <v>0.00224549493985743</v>
+      </c>
+      <c r="H39" t="n">
+        <v>6.171549125163005e-09</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.960982963403987e-08</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3.067128974313123e-13</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1.410595278004329e-11</v>
+        <v>-4.634817827336546e-10</v>
       </c>
       <c r="F40" t="n">
-        <v>2.664288386501229e-12</v>
+        <v>-8.349456614057914e-10</v>
       </c>
       <c r="G40" t="n">
-        <v/>
+        <v>2.368102976216512e-09</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.865059241150054e-08</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6.511638399970573e-09</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2000,84 +2499,93 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-1.677350881588113e-13</v>
-      </c>
-      <c r="E41" t="n">
-        <v>-9.761220142873531e-12</v>
+        <v>3.387042417162516e-09</v>
       </c>
       <c r="F41" t="n">
-        <v>7.338415982373843e-11</v>
+        <v>3.992711619608079e-09</v>
       </c>
       <c r="G41" t="n">
-        <v/>
+        <v>7.163558463436893e-09</v>
+      </c>
+      <c r="H41" t="n">
+        <v>8.319435535926024e-10</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.1532015092863475</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-1.013810497631085e-13</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-8.183187331110588e-12</v>
+        <v>-1.377782836599738e-09</v>
       </c>
       <c r="F42" t="n">
-        <v>3.279880237280741e-10</v>
+        <v>-2.427174662419592e-09</v>
       </c>
       <c r="G42" t="n">
-        <v/>
+        <v>-9.603578231254719e-10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-2.143459680665359e-10</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.275421967353421e-09</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-4.591599587843664e-13</v>
-      </c>
-      <c r="E43" t="n">
-        <v>-7.500050927127907e-12</v>
+        <v>-1.271774988826973e-09</v>
       </c>
       <c r="F43" t="n">
-        <v>1.499546017654861e-12</v>
+        <v>-1.380984677646053e-09</v>
       </c>
       <c r="G43" t="n">
-        <v/>
+        <v>-5.759777530391644e-11</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6.655971594454851e-10</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-1.729140447863482e-10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2087,26 +2595,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-1.238515354994881e-12</v>
-      </c>
-      <c r="E44" t="n">
-        <v>-8.498521848351511e-12</v>
+        <v>-1.411087582889077e-09</v>
       </c>
       <c r="F44" t="n">
-        <v>4.551347158300123e-11</v>
+        <v>-1.538743787006392e-09</v>
       </c>
       <c r="G44" t="n">
-        <v/>
+        <v>2.311212441367774e-09</v>
+      </c>
+      <c r="H44" t="n">
+        <v>7.132613542888384e-10</v>
+      </c>
+      <c r="I44" t="n">
+        <v>7.569113917417068e-09</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2116,26 +2627,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2.453666605388866e-13</v>
-      </c>
-      <c r="E45" t="n">
-        <v>4.203722336791239e-12</v>
+        <v>-2.01041705697229e-09</v>
       </c>
       <c r="F45" t="n">
-        <v>7.13407273907787e-11</v>
+        <v>-2.175427062765426e-09</v>
       </c>
       <c r="G45" t="n">
-        <v/>
+        <v>-4.130555339398348e-10</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.913218209364548e-09</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.323156680391281e-09</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2145,26 +2659,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.523422776731173e-13</v>
-      </c>
-      <c r="E46" t="n">
-        <v>-3.065672839237914e-12</v>
+        <v>-2.049717630791665e-09</v>
       </c>
       <c r="F46" t="n">
-        <v>3.117050061170284e-13</v>
+        <v>-2.149935545913493e-09</v>
       </c>
       <c r="G46" t="n">
-        <v/>
+        <v>-6.027615715098455e-10</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1.108461698348912e-09</v>
+      </c>
+      <c r="I46" t="n">
+        <v>8.107898056053387e-09</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2178,22 +2695,25 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.255908401086748e-10</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2.554577942045487e-11</v>
+        <v>-9.016295411360952e-10</v>
       </c>
       <c r="F47" t="n">
-        <v>2.491863934178297e-10</v>
+        <v>-2.311119772603295e-09</v>
       </c>
       <c r="G47" t="n">
-        <v/>
+        <v>-1.21569378097212e-09</v>
+      </c>
+      <c r="H47" t="n">
+        <v>8.882685071157354e-11</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.50212574645386e-09</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2207,22 +2727,25 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>4.657640351243549e-12</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.2313204585162844</v>
+        <v>5.183607805426625e-09</v>
       </c>
       <c r="F48" t="n">
-        <v>2.147529838525925e-10</v>
+        <v>5.42744582622913e-09</v>
       </c>
       <c r="G48" t="n">
-        <v/>
+        <v>1.291583719108656e-09</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.431782807403952e-09</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.030072471729933e-09</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2236,16 +2759,5527 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>5.410605752195759e-12</v>
-      </c>
-      <c r="E49" t="n">
-        <v>7.703749342931491e-12</v>
+        <v>-1.579212509194256e-09</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2356638257012487</v>
+        <v>1.335196576226077e-10</v>
       </c>
       <c r="G49" t="n">
-        <v/>
+        <v>-6.719103092613803e-10</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2.675834715213529e-10</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4.671012185358833e-09</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>-1.230048315379362e-09</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-1.532428392724448e-09</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-2.719053201264582e-10</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5.021373624237705e-09</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5.547403029086671e-09</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>-2.058613582280863e-11</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-2.492253374845467e-10</v>
+      </c>
+      <c r="G51" t="n">
+        <v>8.162241454169429e-10</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4.779198827738646e-10</v>
+      </c>
+      <c r="I51" t="n">
+        <v>4.550254377371384e-08</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>-1.054332083748754e-09</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-2.345287527237345e-09</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-7.139726884818778e-10</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-6.567034817598232e-10</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.829904820522029e-09</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>-1.29556769045374e-09</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-1.501821331022072e-09</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1.219606754626629e-10</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-4.728006820686186e-10</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-1.296591425387369e-10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>-2.00402920512181e-09</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-1.107069711284717e-09</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-3.903966657516019e-10</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-5.374164593282896e-10</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3.622184250683014e-09</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>-1.489530938725664e-09</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-1.693588222413684e-09</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.25537237877518e-09</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-8.773802538776289e-11</v>
+      </c>
+      <c r="I55" t="n">
+        <v>7.124072037286067e-09</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>-2.115235924455916e-09</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-2.253631919208821e-09</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-6.593496371654788e-10</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-1.426884704581745e-09</v>
+      </c>
+      <c r="I56" t="n">
+        <v>7.375197702631705e-09</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>-6.821936697396365e-10</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-2.19475459514547e-09</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-9.090988252959258e-10</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-1.014280411827543e-09</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.113779708961972e-09</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>-1.963790532676462e-10</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-1.923369653474422e-10</v>
+      </c>
+      <c r="G58" t="n">
+        <v>6.080501800903544e-11</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-9.732668096558262e-10</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3.908253513227156e-11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>-1.667742519375345e-09</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.96187934306381e-10</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-4.553467746260311e-10</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-1.061170354779543e-09</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3.480758524409835e-09</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1.048278014667139e-09</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.080661293416019e-09</v>
+      </c>
+      <c r="G60" t="n">
+        <v>7.665382869509477e-09</v>
+      </c>
+      <c r="H60" t="n">
+        <v>6.311773223778381e-10</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.199016709278056e-08</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>-1.823523871776955e-09</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-1.990620307076405e-09</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-6.124360054838748e-10</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.002405964190082e-11</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.731861894344402e-09</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>-2.631876356718475e-09</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-2.287170525293462e-09</v>
+      </c>
+      <c r="G62" t="n">
+        <v>9.773839788779385e-09</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-3.438546475302525e-10</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.784637074232417e-08</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>-2.115143837507362e-09</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-1.487851447909596e-09</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-3.405139072916252e-10</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-2.669947755424258e-10</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-1.996696470422265e-11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>-2.635873871128442e-09</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-2.389544543879656e-09</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.060768705423592e-08</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-9.631825077615566e-11</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3.81214735556068e-08</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>-2.584438119748789e-09</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-2.370922853293845e-09</v>
+      </c>
+      <c r="G65" t="n">
+        <v>8.420441667361283e-09</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2.484932617143855e-09</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3.462254873345113e-08</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>-2.625297892708317e-09</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-2.378409511436147e-09</v>
+      </c>
+      <c r="G66" t="n">
+        <v>9.864949885941748e-09</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-1.367673939296192e-09</v>
+      </c>
+      <c r="I66" t="n">
+        <v>6.430784210687281e-08</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>-9.328974015199582e-10</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-2.470665954500859e-09</v>
+      </c>
+      <c r="G67" t="n">
+        <v>6.285518526508099e-09</v>
+      </c>
+      <c r="H67" t="n">
+        <v>9.624638580047827e-11</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3.053095659851355e-08</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>2.738233297784522e-09</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.532323436683267e-09</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-3.356922951091626e-10</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2.07328142098286e-09</v>
+      </c>
+      <c r="I68" t="n">
+        <v>9.653245311682512e-11</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1.152401341045947e-09</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.784350862685129e-10</v>
+      </c>
+      <c r="G69" t="n">
+        <v>8.471013675177908e-08</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.675317628509956e-09</v>
+      </c>
+      <c r="I69" t="n">
+        <v>9.805159001162094e-08</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>-1.402818432416195e-09</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-1.842073284309171e-09</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.19952630643385e-08</v>
+      </c>
+      <c r="H70" t="n">
+        <v>6.404602484904017e-09</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4.502902085540498e-08</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>1.001429995154315e-09</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2.306787908526409e-11</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2.3740842125893e-08</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-8.18257607746153e-10</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.041531053387687e-06</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>-7.040958170727577e-10</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-1.341129821989001e-09</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.212781054846027e-08</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2.554319113288552e-09</v>
+      </c>
+      <c r="I72" t="n">
+        <v>6.171844032690427e-08</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>4.304265815948877e-09</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.434061503954947e-08</v>
+      </c>
+      <c r="G73" t="n">
+        <v>6.217486603195452e-08</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1.029241847430505e-08</v>
+      </c>
+      <c r="I73" t="n">
+        <v>9.564412236309595e-07</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>4.395995110523724e-09</v>
+      </c>
+      <c r="E74" t="n">
+        <v>6.396766779207312e-09</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G74" t="n">
+        <v>4.343793830820923e-05</v>
+      </c>
+      <c r="H74" t="n">
+        <v>5.237458664803053e-09</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5.425379457387429e-07</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>-1.624140235659063e-10</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-2.889580833996713e-10</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.853646096703117e-08</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-1.811526244799593e-09</v>
+      </c>
+      <c r="I75" t="n">
+        <v>9.221520440616795e-08</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>1.051289102909028e-10</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3.811113117056199e-10</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2.382495846322989e-08</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-3.609060150042505e-10</v>
+      </c>
+      <c r="I76" t="n">
+        <v>5.725066290334078e-07</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>-9.749580460899368e-10</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-2.38463778480189e-09</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5.193298131845918e-09</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-4.099130917745893e-11</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3.016111997417425e-08</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>3.412037156909342e-09</v>
+      </c>
+      <c r="E78" t="n">
+        <v>6.583369641154007e-09</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2.161150798906071e-08</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1.292012793129952e-09</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.298460411358062e-07</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>4.369534843368405e-10</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5.127256058136178e-10</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2.160069948621438e-10</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1.189672981324364e-10</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3.540653928071976e-11</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>-1.433573162497539e-09</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-1.651227479492252e-09</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G80" t="n">
+        <v>9.107758958774035e-09</v>
+      </c>
+      <c r="H80" t="n">
+        <v>5.098454465853442e-09</v>
+      </c>
+      <c r="I80" t="n">
+        <v>4.389711093255708e-08</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>8.569828426785249e-11</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-8.268625367966698e-11</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.486195893928572e-08</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-2.081135507565191e-10</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5.716370187734083e-07</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>-1.144976207895416e-09</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-2.380720494183074e-09</v>
+      </c>
+      <c r="G82" t="n">
+        <v>7.184597226984613e-09</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-8.666677225518909e-10</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3.395377090288282e-08</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>-1.645440384332685e-09</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-1.350652140542181e-09</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.708099288378726e-08</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-5.5802766510101e-10</v>
+      </c>
+      <c r="I83" t="n">
+        <v>6.188177481766155e-08</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>-9.557657838990758e-10</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-7.306271521393815e-10</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-3.563786016042888e-10</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-5.662341764291614e-10</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3.78031397516662e-11</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>-1.69299871359458e-09</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-1.6473153104049e-09</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2.239014954092432e-08</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-4.17742431741503e-10</v>
+      </c>
+      <c r="I85" t="n">
+        <v>6.05116014534763e-08</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>-2.188857970132695e-09</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-2.189604757415947e-09</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.06535988463539e-08</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-1.71354658456293e-09</v>
+      </c>
+      <c r="I86" t="n">
+        <v>7.930943562958284e-08</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>-8.968225070056816e-10</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-2.336744826379925e-09</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G87" t="n">
+        <v>7.535180055217757e-09</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-1.332815463344029e-09</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1.851398037105388e-08</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>-8.826374317024207e-10</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-3.766699994193902e-10</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.575486147982359e-08</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-1.251358642344008e-09</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2.922374297959627e-08</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>-1.042772628612353e-10</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.734299307008339e-10</v>
+      </c>
+      <c r="G89" t="n">
+        <v>8.165751769004037e-10</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-1.359019782310585e-09</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-1.49769674661684e-10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>3.06633849802128e-10</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4.392017178446295e-10</v>
+      </c>
+      <c r="G90" t="n">
+        <v>4.994665630986231e-08</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-1.383859136338584e-10</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3.635408659578188e-08</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>-2.044795321417416e-09</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-2.14573815425434e-09</v>
+      </c>
+      <c r="G91" t="n">
+        <v>8.893035238887897e-09</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-3.869178957141516e-10</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1.993050101577589e-08</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>-1.30386461287478e-09</v>
+      </c>
+      <c r="E92" t="n">
+        <v>9.268435773953191e-11</v>
+      </c>
+      <c r="F92" t="n">
+        <v>6.137062180996011e-09</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1.516592115929228e-09</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1.136165254596434e-08</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>-1.29905846366312e-09</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-5.495002941097969e-10</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.91408562877343e-08</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1.256859915212582e-09</v>
+      </c>
+      <c r="I93" t="n">
+        <v>9.647494005612059e-09</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>-1.406632887906844e-09</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-1.335064571275694e-09</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-8.164873291464724e-10</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1.073838251700947e-09</v>
+      </c>
+      <c r="I94" t="n">
+        <v>-3.72198054965347e-10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>-1.127468212738432e-09</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-3.896607025571598e-10</v>
+      </c>
+      <c r="F95" t="n">
+        <v>6.830011421446475e-09</v>
+      </c>
+      <c r="H95" t="n">
+        <v>4.997111011133389e-09</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1.020408683027748e-08</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>-1.739072353724538e-09</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-3.393580437793865e-10</v>
+      </c>
+      <c r="F96" t="n">
+        <v>5.915929908804919e-09</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-1.408718975382868e-09</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1.696912359271001e-08</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>2.965047647600905e-09</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-8.654569695511916e-10</v>
+      </c>
+      <c r="F97" t="n">
+        <v>7.889208239418551e-09</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1.099361940526745e-09</v>
+      </c>
+      <c r="I97" t="n">
+        <v>9.320522462317027e-09</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>1.675942288300573e-09</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5.360170912225845e-10</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2.378510468550068e-07</v>
+      </c>
+      <c r="H98" t="n">
+        <v>3.012231979898233e-09</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1.60784665881054e-08</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>1.40578956259349e-09</v>
+      </c>
+      <c r="E99" t="n">
+        <v>6.950354979613729e-10</v>
+      </c>
+      <c r="F99" t="n">
+        <v>6.243392326133228e-10</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-9.24528666947582e-11</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3.008159887506722e-10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>1.178667108587444e-09</v>
+      </c>
+      <c r="E100" t="n">
+        <v>4.564542076997899e-10</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1.378886352674374e-08</v>
+      </c>
+      <c r="H100" t="n">
+        <v>3.888878742997599e-09</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1.550021846512404e-08</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>3.360386486548932e-11</v>
+      </c>
+      <c r="E101" t="n">
+        <v>5.131981194196852e-09</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.535648678917341e-08</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-1.788150519759455e-09</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2.907229767745152e-05</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>1.561790820108111e-09</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-7.076318268603754e-10</v>
+      </c>
+      <c r="F102" t="n">
+        <v>4.580776546061758e-09</v>
+      </c>
+      <c r="H102" t="n">
+        <v>8.351906815971478e-10</v>
+      </c>
+      <c r="I102" t="n">
+        <v>9.146033295668648e-09</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>8.470599677978567e-10</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.771404461928864e-09</v>
+      </c>
+      <c r="F103" t="n">
+        <v>7.466792905015994e-09</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2.922433439308701e-09</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2.08835132583261e-08</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>-2.105304532493867e-10</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-3.952550119430753e-10</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-2.237038983218551e-10</v>
+      </c>
+      <c r="H104" t="n">
+        <v>3.023806654128711e-11</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-1.88836635019248e-11</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>-2.430810607148817e-11</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-1.044592315039946e-10</v>
+      </c>
+      <c r="F105" t="n">
+        <v>5.698139733474767e-09</v>
+      </c>
+      <c r="H105" t="n">
+        <v>4.792044958092099e-09</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1.14698404446156e-08</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>-1.226458268220603e-09</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3.39299247108195e-10</v>
+      </c>
+      <c r="F106" t="n">
+        <v>4.863661749545312e-09</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-1.745696393024311e-09</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2.375752735031637e-08</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>7.545943415713606e-09</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-3.633362289432562e-10</v>
+      </c>
+      <c r="F107" t="n">
+        <v>9.121663878226488e-09</v>
+      </c>
+      <c r="H107" t="n">
+        <v>6.537316418455352e-09</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1.113418146113768e-08</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>7.708505055169694e-09</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.002222468394329896</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2.357074920507829e-07</v>
+      </c>
+      <c r="H108" t="n">
+        <v>3.044546090215378e-09</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2.903953240407281e-05</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>1.523718387517107e-09</v>
+      </c>
+      <c r="E109" t="n">
+        <v>9.813315798262166e-10</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4.322024989547144e-05</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3.586997408741085e-09</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1.710468522829641e-08</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>3.071356440215326e-09</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.628678110765469e-09</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2.031906558437545e-08</v>
+      </c>
+      <c r="H110" t="n">
+        <v>3.180173096048777e-08</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1.973109584246585e-08</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>2.189528979405756e-09</v>
+      </c>
+      <c r="E111" t="n">
+        <v>6.671073995782596e-09</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3.306343298658786e-08</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-5.970418565458947e-11</v>
+      </c>
+      <c r="I111" t="n">
+        <v>6.770566791063141e-05</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>2.666718078622364e-09</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-4.523662553596703e-10</v>
+      </c>
+      <c r="F112" t="n">
+        <v>7.050929347170713e-09</v>
+      </c>
+      <c r="H112" t="n">
+        <v>3.343934755970646e-10</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1.032863536992836e-08</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>5.688840999321982e-10</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2.863145758572269e-09</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1.150856745422271e-08</v>
+      </c>
+      <c r="H113" t="n">
+        <v>3.281587659276954e-10</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2.164573826191544e-08</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>2.765891943229445e-11</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-2.167382650436562e-11</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3.111982664150226e-08</v>
+      </c>
+      <c r="H114" t="n">
+        <v>6.140347234767302e-10</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1.207104825470741e-08</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>3.100603030915836e-11</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-4.983897538892492e-10</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-4.179000498650203e-10</v>
+      </c>
+      <c r="H115" t="n">
+        <v>6.612223576641505e-11</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-4.397557614585652e-11</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>-1.120297002601443e-09</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.188674524584498e-10</v>
+      </c>
+      <c r="F116" t="n">
+        <v>6.814647580746447e-09</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-1.767078705895318e-09</v>
+      </c>
+      <c r="I116" t="n">
+        <v>2.190139589412906e-08</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>4.234558393631489e-10</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-1.321079732502538e-10</v>
+      </c>
+      <c r="F117" t="n">
+        <v>8.564794458989469e-09</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-1.370580197583076e-09</v>
+      </c>
+      <c r="I117" t="n">
+        <v>7.880786330546732e-09</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>-5.615340379612015e-10</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9.144543821744157e-09</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.469003005193174e-08</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-1.691861134412653e-09</v>
+      </c>
+      <c r="I118" t="n">
+        <v>2.007439281677167e-08</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>-9.807071712845815e-10</v>
+      </c>
+      <c r="E119" t="n">
+        <v>9.571830883522909e-10</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3.248558560023788e-08</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-1.635913274813687e-09</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1.033633660875952e-08</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1.803676939665575e-10</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.533673918052423e-09</v>
+      </c>
+      <c r="F120" t="n">
+        <v>8.33758195934023e-10</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-1.077666555528313e-09</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1.342431247243275e-10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>-9.242771042957763e-10</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4.185709908720086e-10</v>
+      </c>
+      <c r="F121" t="n">
+        <v>9.439990707783363e-09</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-9.933276173787619e-10</v>
+      </c>
+      <c r="I121" t="n">
+        <v>8.997600622001844e-09</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>-8.268995313958706e-10</v>
+      </c>
+      <c r="E122" t="n">
+        <v>9.227192932016004e-10</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2.364097259019695e-11</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1.333171061882107e-09</v>
+      </c>
+      <c r="I122" t="n">
+        <v>3.630278336951148e-08</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>-9.179917977228784e-10</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-1.583758821849265e-10</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.978403754113159e-09</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.048850311346532e-09</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3.237831792587595e-08</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>-7.643655184475427e-10</v>
+      </c>
+      <c r="E124" t="n">
+        <v>6.201360532143354e-11</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-7.068084525694087e-11</v>
+      </c>
+      <c r="G124" t="n">
+        <v>6.152273057377406e-09</v>
+      </c>
+      <c r="I124" t="n">
+        <v>4.092442854884695e-08</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>-8.614879729174479e-10</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.951905891572407e-11</v>
+      </c>
+      <c r="F125" t="n">
+        <v>5.396061044159364e-11</v>
+      </c>
+      <c r="G125" t="n">
+        <v>6.391334884838302e-10</v>
+      </c>
+      <c r="I125" t="n">
+        <v>5.950729089213574e-11</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>-1.671029187823651e-09</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-1.08172863608488e-09</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-1.315399522217981e-09</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-1.224501123375946e-09</v>
+      </c>
+      <c r="I126" t="n">
+        <v>7.571800750578807e-08</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>5.261776267198442e-09</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-7.821490254111985e-10</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-1.856767729358548e-10</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1.75040748094353e-09</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3.292666736765175e-08</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>2.392435483020057e-09</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3.976153775161024e-10</v>
+      </c>
+      <c r="F128" t="n">
+        <v>8.129947208155647e-09</v>
+      </c>
+      <c r="G128" t="n">
+        <v>3.216291387640645e-09</v>
+      </c>
+      <c r="I128" t="n">
+        <v>4.847769639849956e-08</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>1.543885530060091e-09</v>
+      </c>
+      <c r="E129" t="n">
+        <v>6.673418435277569e-10</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.068628595035202e-09</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2.955106427815321e-09</v>
+      </c>
+      <c r="I129" t="n">
+        <v>6.81483298701255e-08</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>8.449886086977156e-10</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-9.368991747382512e-12</v>
+      </c>
+      <c r="F130" t="n">
+        <v>6.7824693865784e-10</v>
+      </c>
+      <c r="G130" t="n">
+        <v>6.287670673140974e-10</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1.215181163685892e-10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>-8.419263300687622e-10</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-8.874002462014095e-10</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-9.548968428823256e-10</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-1.570318588407506e-09</v>
+      </c>
+      <c r="I131" t="n">
+        <v>2.033365443209286e-07</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>4.016482914486108e-09</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-4.131371957180218e-10</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-9.126138063924808e-10</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1.488267601149883e-09</v>
+      </c>
+      <c r="I132" t="n">
+        <v>3.222039415808706e-08</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>2.252021179602235e-09</v>
+      </c>
+      <c r="E133" t="n">
+        <v>3.670214554774358e-09</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4.268778245452066e-10</v>
+      </c>
+      <c r="G133" t="n">
+        <v>3.34085566001223e-09</v>
+      </c>
+      <c r="I133" t="n">
+        <v>5.711093991734839e-08</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>7.615018256280844e-10</v>
+      </c>
+      <c r="E134" t="n">
+        <v>6.365155708927153e-10</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-4.736778834466698e-10</v>
+      </c>
+      <c r="G134" t="n">
+        <v>3.474492940731909e-09</v>
+      </c>
+      <c r="I134" t="n">
+        <v>5.162190581847096e-08</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>4.741062099995739e-10</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.665095002502813e-10</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-3.967379444078212e-10</v>
+      </c>
+      <c r="G135" t="n">
+        <v>9.43711915603646e-10</v>
+      </c>
+      <c r="I135" t="n">
+        <v>8.809994576948275e-11</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>-1.233814934565804e-09</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-1.155644168817951e-09</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-1.696751698267802e-09</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1.509087058276944e-09</v>
+      </c>
+      <c r="I136" t="n">
+        <v>7.67134446768697e-08</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>5.57068705305956e-09</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-1.003323868417836e-10</v>
+      </c>
+      <c r="F137" t="n">
+        <v>4.258730426186267e-11</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-1.187444217162589e-11</v>
+      </c>
+      <c r="I137" t="n">
+        <v>3.044775727236785e-08</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>1.749922527469445e-09</v>
+      </c>
+      <c r="E138" t="n">
+        <v>6.112888784597245e-09</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2.134548710923413e-09</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-7.362036315634037e-10</v>
+      </c>
+      <c r="I138" t="n">
+        <v>5.577245163447149e-08</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>5.235050360242908e-10</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3.142995087427095e-10</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3.156626536923459e-09</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-6.586451922983769e-10</v>
+      </c>
+      <c r="I139" t="n">
+        <v>3.271750857340953e-08</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>8.237891918626346e-10</v>
+      </c>
+      <c r="E140" t="n">
+        <v>8.596526290428151e-10</v>
+      </c>
+      <c r="F140" t="n">
+        <v>9.191494826792911e-10</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-5.560051917621366e-10</v>
+      </c>
+      <c r="I140" t="n">
+        <v>8.622513854428096e-11</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>1.036576602914012e-11</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4.15043247506043e-10</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-9.291191460913792e-11</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1.398275867742654e-09</v>
+      </c>
+      <c r="I141" t="n">
+        <v>3.610349212156076e-07</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>-3.618383481741948e-09</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.185660744633623e-09</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3.04046742382385e-09</v>
+      </c>
+      <c r="G142" t="n">
+        <v>6.052115341022969e-09</v>
+      </c>
+      <c r="I142" t="n">
+        <v>7.767905322647662e-08</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>7.149462664241571e-09</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.626066083988224e-08</v>
+      </c>
+      <c r="F143" t="n">
+        <v>7.219694421629098e-09</v>
+      </c>
+      <c r="G143" t="n">
+        <v>4.758598442297451e-09</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1.898780644011557e-07</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>5.555490169691943e-09</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3.405167923815514e-09</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-1.828132392594966e-09</v>
+      </c>
+      <c r="G144" t="n">
+        <v>5.805787701634289e-09</v>
+      </c>
+      <c r="I144" t="n">
+        <v>9.205797555229611e-08</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>7.251545577496618e-09</v>
+      </c>
+      <c r="E145" t="n">
+        <v>5.644346186594078e-09</v>
+      </c>
+      <c r="F145" t="n">
+        <v>5.786738975415422e-09</v>
+      </c>
+      <c r="G145" t="n">
+        <v>3.246493700957238e-08</v>
+      </c>
+      <c r="I145" t="n">
+        <v>3.010541244613815e-07</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>2.1125955176311e-11</v>
+      </c>
+      <c r="E146" t="n">
+        <v>4.725344640260665e-11</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-2.197474110469114e-10</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-7.531612446963084e-10</v>
+      </c>
+      <c r="I146" t="n">
+        <v>8.928473534192099e-07</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>8.69043615036054e-11</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-1.125894697452967e-09</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-1.314839179135873e-09</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-1.329989185230788e-09</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1.210917261632822e-08</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>-1.123347281042312e-09</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-3.735560037205568e-11</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-1.068512803587216e-09</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-1.716167757322352e-09</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1.394651675109408e-08</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>-1.28314169585414e-09</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-1.054248666392787e-09</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-4.9072761537593e-10</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-1.674043149102335e-09</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1.212328606646094e-08</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>-1.14297840287665e-10</v>
+      </c>
+      <c r="E150" t="n">
+        <v>5.913345767761111e-10</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-1.510087216631113e-10</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-7.952331229597591e-11</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1.83100751355586e-08</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>-1.281396275603332e-09</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-1.036311969571665e-09</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-1.254619069282837e-09</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-1.655620478547805e-09</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-3.553518278871307e-10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>-2.481159538878501e-09</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-2.962624268159566e-09</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3.12552314199634e-08</v>
+      </c>
+      <c r="G152" t="n">
+        <v>7.252766062987849e-09</v>
+      </c>
+      <c r="H152" t="n">
+        <v>3.467908892920796e-08</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>-2.50707838857256e-09</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-3.408606218686019e-09</v>
+      </c>
+      <c r="F153" t="n">
+        <v>6.649714697691667e-08</v>
+      </c>
+      <c r="G153" t="n">
+        <v>6.430878072411059e-09</v>
+      </c>
+      <c r="H153" t="n">
+        <v>3.283104497797012e-08</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>-2.515966580913763e-09</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-3.470117829413024e-09</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2.737671804491979e-08</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2.103263688674112e-08</v>
+      </c>
+      <c r="H154" t="n">
+        <v>3.154909962289431e-08</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>-2.431691361793436e-09</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-3.383934143129547e-09</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3.135415147816687e-08</v>
+      </c>
+      <c r="G155" t="n">
+        <v>7.567302549030929e-09</v>
+      </c>
+      <c r="H155" t="n">
+        <v>8.675689939912904e-08</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>-2.300111541662124e-09</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-2.633938948871904e-09</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-8.768200532747032e-11</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-9.439717346353941e-11</v>
+      </c>
+      <c r="H156" t="n">
+        <v>-4.075227424730488e-11</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>-1.014882009118605e-09</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-3.569920683452351e-09</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2.799323348840179e-08</v>
+      </c>
+      <c r="G157" t="n">
+        <v>5.695452064038471e-09</v>
+      </c>
+      <c r="H157" t="n">
+        <v>3.333806449352818e-08</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>-1.207878814823014e-09</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-3.493717055096679e-09</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2.537830195375788e-07</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1.09274603392309e-08</v>
+      </c>
+      <c r="H158" t="n">
+        <v>5.174390254822049e-08</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>6.257130835941594e-10</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-3.613280864521013e-09</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5.419977896756741e-08</v>
+      </c>
+      <c r="G159" t="n">
+        <v>3.080159119181253e-05</v>
+      </c>
+      <c r="H159" t="n">
+        <v>4.819808467222793e-08</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>-1.282394981554704e-09</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-3.554415142222369e-09</v>
+      </c>
+      <c r="F160" t="n">
+        <v>4.237920037227557e-08</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1.012642860302548e-08</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1.607034601175323e-07</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>3.167144770782603e-09</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-3.513504772974732e-09</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1.134164882054514e-10</v>
+      </c>
+      <c r="G161" t="n">
+        <v>4.341033542193107e-10</v>
+      </c>
+      <c r="H161" t="n">
+        <v>7.302924204645618e-11</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>-1.456559105732176e-09</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-3.487880181068496e-09</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1.897579550069259e-08</v>
+      </c>
+      <c r="G162" t="n">
+        <v>5.249180554418212e-09</v>
+      </c>
+      <c r="H162" t="n">
+        <v>3.083615660507123e-08</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>-1.422055672919e-09</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-2.539912862946367e-09</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3.058383922026089e-08</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1.197157160488542e-08</v>
+      </c>
+      <c r="H163" t="n">
+        <v>5.143297834852907e-08</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>-1.56751442121355e-09</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-3.546384182784702e-09</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2.442786965916346e-08</v>
+      </c>
+      <c r="G164" t="n">
+        <v>3.827350566280319e-08</v>
+      </c>
+      <c r="H164" t="n">
+        <v>3.653648608276784e-08</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>-2.024101466587256e-09</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-3.419080153520211e-09</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2.295290540555052e-08</v>
+      </c>
+      <c r="G165" t="n">
+        <v>7.793138449047564e-09</v>
+      </c>
+      <c r="H165" t="n">
+        <v>9.795335202333163e-08</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>-1.705971200534413e-09</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-3.341588172125075e-09</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-1.551965487925354e-10</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-1.210837196908474e-10</v>
+      </c>
+      <c r="H166" t="n">
+        <v>-5.294469751144817e-11</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>-8.925031067656137e-10</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-3.341365836104152e-09</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3.214644792725262e-08</v>
+      </c>
+      <c r="G167" t="n">
+        <v>2.516955159366989e-09</v>
+      </c>
+      <c r="H167" t="n">
+        <v>3.788532135587202e-08</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>3.645248717704374e-09</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-2.995887231854431e-09</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1.284433452129932e-07</v>
+      </c>
+      <c r="G168" t="n">
+        <v>6.464632946450576e-09</v>
+      </c>
+      <c r="H168" t="n">
+        <v>7.69791506517676e-08</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>-1.570264155363076e-09</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-3.390581776212882e-09</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1.752094528878007e-07</v>
+      </c>
+      <c r="G169" t="n">
+        <v>3.281388896216109e-09</v>
+      </c>
+      <c r="H169" t="n">
+        <v>4.267624318347418e-08</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>-1.187475685660546e-09</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-3.30361859800118e-09</v>
+      </c>
+      <c r="F170" t="n">
+        <v>5.063951302004028e-08</v>
+      </c>
+      <c r="G170" t="n">
+        <v>4.153536915604995e-09</v>
+      </c>
+      <c r="H170" t="n">
+        <v>2.695850346243405e-07</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>2.611720202056652e-09</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.229590357840159e-08</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1.918649850944799e-10</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-1.346023837869933e-10</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1.905719160793399e-10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>-1.143043762765105e-09</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-3.388350392088864e-09</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2.926874196439711e-08</v>
+      </c>
+      <c r="G172" t="n">
+        <v>6.021377757770517e-09</v>
+      </c>
+      <c r="H172" t="n">
+        <v>2.05304681430868e-08</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>-1.469430926909945e-09</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-2.756306433983834e-09</v>
+      </c>
+      <c r="F173" t="n">
+        <v>4.62753719927049e-08</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1.065266717062449e-08</v>
+      </c>
+      <c r="H173" t="n">
+        <v>2.504068012107249e-08</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>-2.022224155000355e-09</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-3.303652941833328e-09</v>
+      </c>
+      <c r="F174" t="n">
+        <v>9.40611315845711e-08</v>
+      </c>
+      <c r="G174" t="n">
+        <v>7.51802158214709e-09</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2.223938814586807e-08</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>-1.61274542047586e-09</v>
+      </c>
+      <c r="E175" t="n">
+        <v>-3.453703384039661e-09</v>
+      </c>
+      <c r="F175" t="n">
+        <v>3.772274515773798e-08</v>
+      </c>
+      <c r="G175" t="n">
+        <v>4.45180390590703e-08</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2.267396397901591e-08</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>-1.772782227300844e-09</v>
+      </c>
+      <c r="E176" t="n">
+        <v>-2.833516669055814e-09</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-6.23956840995244e-11</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-8.402003641653573e-11</v>
+      </c>
+      <c r="H176" t="n">
+        <v>-1.699088247981572e-10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>8.065116380998893e-10</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-2.071704316700693e-09</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4.801134703391113e-08</v>
+      </c>
+      <c r="G177" t="n">
+        <v>2.27062208621051e-08</v>
+      </c>
+      <c r="H177" t="n">
+        <v>6.31853700574028e-08</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>2.015099469977391e-09</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.1546174033169199</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1.419108610081119e-07</v>
+      </c>
+      <c r="G178" t="n">
+        <v>3.079243299838828e-05</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1.059246430229621e-07</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>-8.687563531507961e-10</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-2.73828756014172e-09</v>
+      </c>
+      <c r="F179" t="n">
+        <v>5.181772509394109e-07</v>
+      </c>
+      <c r="G179" t="n">
+        <v>3.500856366142929e-08</v>
+      </c>
+      <c r="H179" t="n">
+        <v>6.72154495066541e-08</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>7.677239311138841e-09</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.334793639704788e-08</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2.429035122037704e-07</v>
+      </c>
+      <c r="G180" t="n">
+        <v>6.886454743637985e-05</v>
+      </c>
+      <c r="H180" t="n">
+        <v>2.883586873746236e-07</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>-1.094562997134739e-09</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-2.074481781643897e-09</v>
+      </c>
+      <c r="F181" t="n">
+        <v>5.993982473927149e-08</v>
+      </c>
+      <c r="G181" t="n">
+        <v>3.898567901650923e-08</v>
+      </c>
+      <c r="H181" t="n">
+        <v>7.821000490801537e-07</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2253,7 +8287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2269,62 +8303,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.1590365</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>i1</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>i2</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>i3</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>i4</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2.011484586519129e-08</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.212056125042771e-08</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.72080862589569e-10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.665572712679147</v>
+        <v>2.738168111972305</v>
       </c>
     </row>
   </sheetData>
@@ -2348,7 +8327,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>2.437860993662113e-15</v>
+        <v>0.2091415</v>
       </c>
     </row>
   </sheetData>
